--- a/K9HZ_KI3P_Reverse_Voltage_Protection/K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit/Reverse_voltage_protection_20A_BOM.xlsx
+++ b/K9HZ_KI3P_Reverse_Voltage_Protection/K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit/Reverse_voltage_protection_20A_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_KI3P_Reverse_Voltage_Protection\K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\K9HZ\K9HZ_KI3P_Reverse_Voltage_Protection\K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E66067-BCD2-466C-9975-54939625342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62BD14-5501-42A1-93DA-53DD005B39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EDED857D-3C86-4F60-A9F1-02B0562F0948}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
